--- a/data/renataMilho01072022.xlsx
+++ b/data/renataMilho01072022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiano/Documents/analysis/reporteSemanal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EBFD7B-E965-5B44-B62D-CCD99935DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC7084D-7FD2-8645-9773-6208909D747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{8FEB7CC0-DEBA-42E6-AD3D-8535F126D1BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{8FEB7CC0-DEBA-42E6-AD3D-8535F126D1BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Checks" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4695" uniqueCount="4246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="4247">
   <si>
     <t>Genotipo</t>
   </si>
@@ -12827,13 +12827,16 @@
   </si>
   <si>
     <t>NS 92PRO2</t>
+  </si>
+  <si>
+    <t>PEYYC439/WTP6741ZL.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12900,6 +12903,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -13323,7 +13332,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="107" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
@@ -16913,10 +16922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31EE20E-BDC4-42C2-A6E1-C4B76BAC1F55}">
-  <dimension ref="A1:B2119"/>
+  <dimension ref="A1:B2120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2091" workbookViewId="0">
+      <selection activeCell="B2120" sqref="B2120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33877,11 +33886,20 @@
         <v>1157</v>
       </c>
     </row>
+    <row r="2120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2120" s="2" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B2120" s="8" t="s">
+        <v>4206</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B2119" xr:uid="{6ADDD602-08ED-41C8-B5E1-741815192550}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33941,12 +33959,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34147,15 +34162,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE38266-2CD4-4521-A9E3-C5C5D044A263}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C695BA-6581-4BF7-AE76-E95F87806E4C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b0f4d082-33bf-465b-a471-582773e71549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b2b53afc-9144-4bc3-bc8b-13c82b22d0b4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -34180,18 +34207,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C695BA-6581-4BF7-AE76-E95F87806E4C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AE38266-2CD4-4521-A9E3-C5C5D044A263}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b0f4d082-33bf-465b-a471-582773e71549"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b2b53afc-9144-4bc3-bc8b-13c82b22d0b4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>